--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1473246.838944706</v>
+        <v>1470994.759233498</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.10522832</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.2462644793336</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>172.4209394294444</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>108.549119697934</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>50.04052206184378</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>357.5738180516813</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>81.58403242496148</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>186.8655203345173</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>41.41379075544808</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>10.74297899850855</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.842284043618</v>
+        <v>1.89717711244712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>55.52079624060297</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833647</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="20">
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936182</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W25" t="n">
-        <v>241.1435815093809</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161929282</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936238</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>223.8290352905905</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>49.33106662725072</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4431,16 +4431,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4452,7 +4452,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.7578170212613</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,7 +4483,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1249.849026162126</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>995.1645379562392</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>705.7473679192786</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>477.7578170212613</v>
+        <v>860.4091179521432</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.7578170212613</v>
+        <v>639.6165388086131</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3164.769171255616</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1916.76745899674</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4641,10 @@
         <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>774.7644039315074</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C7" t="n">
-        <v>774.7644039315074</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>295.1374167748928</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1546.855613072372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1546.855613072372</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1292.171124866485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.753954829525</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X7" t="n">
-        <v>774.7644039315074</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y7" t="n">
-        <v>774.7644039315074</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>565.4135772219082</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>150.3411270669047</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2744.955434856437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>623.1279902937557</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C10" t="n">
-        <v>623.1279902937557</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D10" t="n">
-        <v>623.1279902937557</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E10" t="n">
-        <v>475.2148967113626</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F10" t="n">
-        <v>328.3249492134522</v>
+        <v>214.645643731949</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>843.9205694372858</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>623.1279902937557</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048565</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925207</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101276</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122173</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998269</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765925</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420829</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.67306444377</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787968</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582081</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038386</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X31" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y31" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075809</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.0033420516659</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788741</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.26526345295102</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>45.37941682721012</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.54986409392873</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.4467738245886</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>62.35543909865362</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462226</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631857005</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918408.9720564663</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564663</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918408.9720564666</v>
+        <v>918408.9720564662</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918408.9720564663</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>918408.9720564663</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564663</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26314,25 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062535</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062538</v>
@@ -26341,19 +26341,19 @@
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26436,22 +26436,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26522,46 +26522,46 @@
         <v>-1013881.647146954</v>
       </c>
       <c r="C6" t="n">
-        <v>314863.0985806389</v>
+        <v>314863.0985806388</v>
       </c>
       <c r="D6" t="n">
         <v>314863.0985806389</v>
       </c>
       <c r="E6" t="n">
-        <v>66764.60092319825</v>
+        <v>66729.86299776247</v>
       </c>
       <c r="F6" t="n">
-        <v>392177.0627305527</v>
+        <v>392142.3248051169</v>
       </c>
       <c r="G6" t="n">
-        <v>392177.062730553</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="H6" t="n">
-        <v>392177.062730553</v>
+        <v>392142.3248051171</v>
       </c>
       <c r="I6" t="n">
-        <v>392177.062730553</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="J6" t="n">
-        <v>174645.8603332757</v>
+        <v>174611.1224078399</v>
       </c>
       <c r="K6" t="n">
-        <v>392177.0627305531</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="L6" t="n">
-        <v>392177.0627305531</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="M6" t="n">
-        <v>307122.0347950413</v>
+        <v>307087.2968696055</v>
       </c>
       <c r="N6" t="n">
-        <v>392177.0627305531</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="O6" t="n">
-        <v>392177.062730553</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="P6" t="n">
-        <v>392177.0627305532</v>
+        <v>392142.3248051172</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024436</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>240.9947042380794</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>117.1605356911031</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>277.7117364082911</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>28.66412060437233</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>84.44177583406675</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>32.6834289416519</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>253.1939736318724</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>317.0092794716264</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>3.183524215410245</v>
+        <v>164.1286311465811</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.571301715478522e-13</v>
       </c>
     </row>
     <row r="20">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29493,7 +29493,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-2.419498242208011e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29922,10 +29922,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.98509025987305e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31762,28 +31762,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>230.1272937575242</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31914,7 +31914,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31929,13 +31929,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.9328157424943</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>514.695376254093</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>452.3405299254384</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>98.78558167419091</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>372.0991318096486</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295757</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
